--- a/xlsx/购买力平价_intext.xlsx
+++ b/xlsx/购买力平价_intext.xlsx
@@ -29,7 +29,7 @@
     <t>缩写</t>
   </si>
   <si>
-    <t>政策_政策_美國_购买力平价</t>
+    <t>政策_政策_美国_购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%85%83</t>
   </si>
   <si>
-    <t>國際元</t>
+    <t>国际元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A8%E7%84%A1%E9%9C%B8%E6%8C%87%E6%95%B8</t>
   </si>
   <si>
-    <t>巨無霸指數</t>
+    <t>巨无霸指数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%BD%93%E5%8A%B3</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%BA%A5%E5%85%8B%E6%BC%A2%E5%A0%A1</t>
   </si>
   <si>
-    <t>大麥克漢堡</t>
+    <t>大麦克汉堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -143,7 +143,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%83%B9%E5%AE%9A%E5%BE%8B</t>
   </si>
   <si>
-    <t>一價定律</t>
+    <t>一价定律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8F%E5%AE%85</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E6%9C%8D%E5%8B%99</t>
   </si>
   <si>
-    <t>公共服務</t>
+    <t>公共服务</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%A1%E6%9F%93</t>

--- a/xlsx/购买力平价_intext.xlsx
+++ b/xlsx/购买力平价_intext.xlsx
@@ -29,7 +29,7 @@
     <t>缩写</t>
   </si>
   <si>
-    <t>政策_政策_美國_购买力平价</t>
+    <t>体育运动_体育运动_伊朗_购买力平价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A7%E5%B8%81</t>
